--- a/Occ rate 2015_2023.xlsx
+++ b/Occ rate 2015_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keros\.venv\Capstone-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF0BA265-6A37-47AB-9698-14CC9B992289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BCE1E8-4098-4FFE-81F2-3F82AC1E72CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7EB4146-D490-488D-917F-06F799A966E6}"/>
+    <workbookView xWindow="-16200" yWindow="1425" windowWidth="16410" windowHeight="11295" xr2:uid="{F7EB4146-D490-488D-917F-06F799A966E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,168 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>District of Columbia</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>Maine</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Montana</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>New Hampshire</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>Occupancy Rate</t>
-  </si>
-  <si>
-    <t>Avg.</t>
+    <t>Occupancy Rate Avg</t>
   </si>
 </sst>
 </file>
@@ -252,8 +93,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,24 +410,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF8E936-6889-4D1F-AD38-0FFFEEC90814}">
-  <dimension ref="A1:K54"/>
+  <dimension ref="B2:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>2015</v>
       </c>
@@ -622,14 +459,11 @@
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>0.82</v>
       </c>
@@ -662,10 +496,7 @@
         <v>0.77555555555555555</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>0.86</v>
       </c>
@@ -698,10 +529,7 @@
         <v>0.81555555555555559</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>0.9</v>
       </c>
@@ -734,10 +562,7 @@
         <v>0.86111111111111116</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>0.71</v>
       </c>
@@ -770,10 +595,7 @@
         <v>0.69888888888888878</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>0.73</v>
       </c>
@@ -806,10 +628,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>0.86</v>
       </c>
@@ -842,10 +661,7 @@
         <v>0.83888888888888891</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>0.79</v>
       </c>
@@ -878,10 +694,7 @@
         <v>0.75666666666666671</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>0.88</v>
       </c>
@@ -914,10 +727,7 @@
         <v>0.82333333333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>0.89</v>
       </c>
@@ -950,10 +760,7 @@
         <v>0.82333333333333336</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>0.92</v>
       </c>
@@ -986,10 +793,7 @@
         <v>0.87333333333333341</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>0.89</v>
       </c>
@@ -1022,10 +826,7 @@
         <v>0.85222222222222221</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>0.85</v>
       </c>
@@ -1058,10 +859,7 @@
         <v>0.7944444444444444</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>0.9</v>
       </c>
@@ -1094,10 +892,7 @@
         <v>0.81999999999999984</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>0.65</v>
       </c>
@@ -1130,10 +925,7 @@
         <v>0.64111111111111108</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>0.77</v>
       </c>
@@ -1166,10 +958,7 @@
         <v>0.7122222222222222</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>0.76</v>
       </c>
@@ -1202,10 +991,7 @@
         <v>0.71444444444444455</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>0.79</v>
       </c>
@@ -1238,10 +1024,7 @@
         <v>0.73999999999999988</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>0.8</v>
       </c>
@@ -1274,10 +1057,7 @@
         <v>0.76555555555555566</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>0.87</v>
       </c>
@@ -1310,10 +1090,7 @@
         <v>0.82444444444444431</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>0.75</v>
       </c>
@@ -1346,10 +1123,7 @@
         <v>0.72777777777777775</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>0.9</v>
       </c>
@@ -1382,10 +1156,7 @@
         <v>0.8455555555555555</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>0.88</v>
       </c>
@@ -1418,10 +1189,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>0.87</v>
       </c>
@@ -1454,10 +1222,7 @@
         <v>0.81666666666666676</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>0.85</v>
       </c>
@@ -1490,10 +1255,7 @@
         <v>0.78999999999999992</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>0.89</v>
       </c>
@@ -1526,10 +1288,7 @@
         <v>0.8222222222222223</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>0.87</v>
       </c>
@@ -1562,10 +1321,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>0.72</v>
       </c>
@@ -1598,10 +1354,7 @@
         <v>0.68777777777777771</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>0.67</v>
       </c>
@@ -1634,10 +1387,7 @@
         <v>0.60111111111111126</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>0.76</v>
       </c>
@@ -1670,10 +1420,7 @@
         <v>0.70555555555555549</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>0.8</v>
       </c>
@@ -1706,10 +1453,7 @@
         <v>0.76555555555555566</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>0.9</v>
       </c>
@@ -1742,10 +1486,7 @@
         <v>0.8322222222222222</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>0.86</v>
       </c>
@@ -1778,10 +1519,7 @@
         <v>0.79666666666666663</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>0.78</v>
       </c>
@@ -1814,10 +1552,7 @@
         <v>0.76222222222222225</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>0.9</v>
       </c>
@@ -1850,10 +1585,7 @@
         <v>0.87000000000000011</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>0.83</v>
       </c>
@@ -1886,10 +1618,7 @@
         <v>0.78555555555555556</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>35</v>
-      </c>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>0.92</v>
       </c>
@@ -1922,10 +1651,7 @@
         <v>0.87444444444444447</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>0.84</v>
       </c>
@@ -1958,10 +1684,7 @@
         <v>0.79444444444444462</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>0.67</v>
       </c>
@@ -1994,10 +1717,7 @@
         <v>0.61444444444444457</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>0.61</v>
       </c>
@@ -2030,10 +1750,7 @@
         <v>0.62777777777777777</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>39</v>
-      </c>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>0.9</v>
       </c>
@@ -2066,10 +1783,7 @@
         <v>0.82888888888888901</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>40</v>
-      </c>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>0.92</v>
       </c>
@@ -2102,10 +1816,7 @@
         <v>0.85666666666666669</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>41</v>
-      </c>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>0.87</v>
       </c>
@@ -2138,10 +1849,7 @@
         <v>0.82333333333333325</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>42</v>
-      </c>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>0.92</v>
       </c>
@@ -2174,10 +1882,7 @@
         <v>0.78111111111111109</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>43</v>
-      </c>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>0.78</v>
       </c>
@@ -2210,10 +1915,7 @@
         <v>0.72444444444444445</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>44</v>
-      </c>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>0.71</v>
       </c>
@@ -2246,10 +1948,7 @@
         <v>0.66888888888888887</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>45</v>
-      </c>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>0.65</v>
       </c>
@@ -2282,10 +1981,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>46</v>
-      </c>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>0.84</v>
       </c>
@@ -2318,10 +2014,7 @@
         <v>0.78111111111111109</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>47</v>
-      </c>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>0.88</v>
       </c>
@@ -2354,10 +2047,7 @@
         <v>0.83888888888888891</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>48</v>
-      </c>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>0.81</v>
       </c>
@@ -2390,10 +2080,7 @@
         <v>0.73666666666666658</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>49</v>
-      </c>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>0.88</v>
       </c>
@@ -2426,10 +2113,7 @@
         <v>0.85777777777777775</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>50</v>
-      </c>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>0.8</v>
       </c>
@@ -2462,10 +2146,7 @@
         <v>0.74888888888888894</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>51</v>
-      </c>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>0.79</v>
       </c>
